--- a/data/modified/AL.xlsx
+++ b/data/modified/AL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\nthach17\repo\substance-use\data\modified\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F93BC2-0E0A-4865-ABD5-B33ED5098548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29DCC69-0559-4A6C-9900-16B68A83FA3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{290C8D97-BA6B-4631-89BD-1ECDA2D5BCC0}"/>
+    <workbookView xWindow="28680" yWindow="1605" windowWidth="29040" windowHeight="15720" xr2:uid="{290C8D97-BA6B-4631-89BD-1ECDA2D5BCC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -155,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -168,6 +168,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A108B4-8A24-4F8D-8B50-50D3CDF1AC7C}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1341,10 +1342,1790 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G37">
-        <f>SUM(G1:G35)</f>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>2</v>
+      </c>
+      <c r="B38" s="4">
+        <v>2</v>
+      </c>
+      <c r="C38" s="5">
+        <v>15</v>
+      </c>
+      <c r="D38" s="5">
+        <v>15</v>
+      </c>
+      <c r="E38" s="6">
+        <v>17</v>
+      </c>
+      <c r="F38" s="6">
+        <v>17</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>2</v>
+      </c>
+      <c r="B39" s="4">
+        <v>2</v>
+      </c>
+      <c r="C39" s="5">
+        <v>9</v>
+      </c>
+      <c r="D39" s="5">
+        <v>10</v>
+      </c>
+      <c r="E39" s="6">
+        <v>1</v>
+      </c>
+      <c r="F39" s="6">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>2</v>
+      </c>
+      <c r="B40" s="4">
+        <v>2</v>
+      </c>
+      <c r="C40" s="5">
+        <v>15</v>
+      </c>
+      <c r="D40" s="5">
+        <v>15</v>
+      </c>
+      <c r="E40" s="6">
+        <v>14</v>
+      </c>
+      <c r="F40" s="6">
+        <v>14</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>2</v>
+      </c>
+      <c r="B41" s="4">
+        <v>2</v>
+      </c>
+      <c r="C41" s="5">
+        <v>14</v>
+      </c>
+      <c r="D41" s="5">
+        <v>15</v>
+      </c>
+      <c r="E41" s="6">
+        <v>15</v>
+      </c>
+      <c r="F41" s="6">
         <v>16</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <v>2</v>
+      </c>
+      <c r="B42" s="4">
+        <v>2</v>
+      </c>
+      <c r="C42" s="5">
+        <v>12</v>
+      </c>
+      <c r="D42" s="5">
+        <v>11</v>
+      </c>
+      <c r="E42" s="6">
+        <v>14</v>
+      </c>
+      <c r="F42" s="6">
+        <v>13</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <v>2</v>
+      </c>
+      <c r="B43" s="4">
+        <v>1</v>
+      </c>
+      <c r="C43" s="5">
+        <v>12</v>
+      </c>
+      <c r="D43" s="5">
+        <v>1</v>
+      </c>
+      <c r="E43" s="6">
+        <v>1</v>
+      </c>
+      <c r="F43" s="6">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>2</v>
+      </c>
+      <c r="B44" s="4">
+        <v>2</v>
+      </c>
+      <c r="C44" s="5">
+        <v>15</v>
+      </c>
+      <c r="D44" s="5">
+        <v>15</v>
+      </c>
+      <c r="E44" s="6">
+        <v>1</v>
+      </c>
+      <c r="F44" s="6">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B45" s="4">
+        <v>1</v>
+      </c>
+      <c r="D45" s="5">
+        <v>1</v>
+      </c>
+      <c r="F45" s="6">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>2</v>
+      </c>
+      <c r="B46" s="4">
+        <v>2</v>
+      </c>
+      <c r="C46" s="5">
+        <v>15</v>
+      </c>
+      <c r="D46" s="5">
+        <v>14</v>
+      </c>
+      <c r="E46" s="6">
+        <v>17</v>
+      </c>
+      <c r="F46" s="6">
+        <v>14</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <v>2</v>
+      </c>
+      <c r="B47" s="4">
+        <v>2</v>
+      </c>
+      <c r="C47" s="5">
+        <v>9</v>
+      </c>
+      <c r="D47" s="5">
+        <v>11</v>
+      </c>
+      <c r="E47" s="6">
+        <v>1</v>
+      </c>
+      <c r="F47" s="6">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
+        <v>2</v>
+      </c>
+      <c r="B48" s="4">
+        <v>2</v>
+      </c>
+      <c r="C48" s="5">
+        <v>12</v>
+      </c>
+      <c r="D48" s="5">
+        <v>13</v>
+      </c>
+      <c r="E48" s="6">
+        <v>12</v>
+      </c>
+      <c r="F48" s="6">
+        <v>15</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
+        <v>2</v>
+      </c>
+      <c r="B49" s="4">
+        <v>2</v>
+      </c>
+      <c r="C49" s="5">
+        <v>14</v>
+      </c>
+      <c r="D49" s="5">
+        <v>12</v>
+      </c>
+      <c r="E49" s="6">
+        <v>15</v>
+      </c>
+      <c r="F49" s="6">
+        <v>14</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
+        <v>1</v>
+      </c>
+      <c r="B50" s="4">
+        <v>2</v>
+      </c>
+      <c r="C50" s="5">
+        <v>1</v>
+      </c>
+      <c r="D50" s="5">
+        <v>10</v>
+      </c>
+      <c r="E50" s="6">
+        <v>1</v>
+      </c>
+      <c r="F50" s="6">
+        <v>12</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
+        <v>2</v>
+      </c>
+      <c r="B51" s="4">
+        <v>2</v>
+      </c>
+      <c r="C51" s="5">
+        <v>14</v>
+      </c>
+      <c r="D51" s="5">
+        <v>15</v>
+      </c>
+      <c r="E51" s="6">
+        <v>13</v>
+      </c>
+      <c r="F51" s="6">
+        <v>15</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="4">
+        <v>2</v>
+      </c>
+      <c r="B52" s="4">
+        <v>2</v>
+      </c>
+      <c r="C52" s="5">
+        <v>15</v>
+      </c>
+      <c r="D52" s="5">
+        <v>15</v>
+      </c>
+      <c r="E52" s="6">
+        <v>17</v>
+      </c>
+      <c r="F52" s="6">
+        <v>17</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
+        <v>2</v>
+      </c>
+      <c r="B53" s="4">
+        <v>2</v>
+      </c>
+      <c r="C53" s="5">
+        <v>11</v>
+      </c>
+      <c r="D53" s="5">
+        <v>11</v>
+      </c>
+      <c r="E53" s="6">
+        <v>1</v>
+      </c>
+      <c r="F53" s="6">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="4">
+        <v>1</v>
+      </c>
+      <c r="B54" s="4">
+        <v>1</v>
+      </c>
+      <c r="C54" s="5">
+        <v>1</v>
+      </c>
+      <c r="D54" s="5">
+        <v>1</v>
+      </c>
+      <c r="E54" s="6">
+        <v>1</v>
+      </c>
+      <c r="F54" s="6">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="4">
+        <v>2</v>
+      </c>
+      <c r="B55" s="4">
+        <v>2</v>
+      </c>
+      <c r="C55" s="5">
+        <v>12</v>
+      </c>
+      <c r="D55" s="5">
+        <v>9</v>
+      </c>
+      <c r="E55" s="6">
+        <v>12</v>
+      </c>
+      <c r="F55" s="6">
+        <v>11</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="4">
+        <v>2</v>
+      </c>
+      <c r="B56" s="4">
+        <v>2</v>
+      </c>
+      <c r="C56" s="5">
+        <v>11</v>
+      </c>
+      <c r="D56" s="5">
+        <v>10</v>
+      </c>
+      <c r="E56" s="6">
+        <v>13</v>
+      </c>
+      <c r="F56" s="6">
+        <v>12</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="4">
+        <v>1</v>
+      </c>
+      <c r="B57" s="4">
+        <v>1</v>
+      </c>
+      <c r="C57" s="5">
+        <v>1</v>
+      </c>
+      <c r="D57" s="5">
+        <v>1</v>
+      </c>
+      <c r="E57" s="6">
+        <v>1</v>
+      </c>
+      <c r="F57" s="6">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="4">
+        <v>2</v>
+      </c>
+      <c r="B58" s="4">
+        <v>2</v>
+      </c>
+      <c r="C58" s="5">
+        <v>11</v>
+      </c>
+      <c r="D58" s="5">
+        <v>10</v>
+      </c>
+      <c r="E58" s="6">
+        <v>11</v>
+      </c>
+      <c r="F58" s="6">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="4">
+        <v>2</v>
+      </c>
+      <c r="B59" s="4">
+        <v>2</v>
+      </c>
+      <c r="C59" s="5">
+        <v>12</v>
+      </c>
+      <c r="D59" s="5">
+        <v>11</v>
+      </c>
+      <c r="E59" s="6">
+        <v>14</v>
+      </c>
+      <c r="F59" s="6">
+        <v>13</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="4">
+        <v>2</v>
+      </c>
+      <c r="B60" s="4">
+        <v>2</v>
+      </c>
+      <c r="C60" s="5">
+        <v>11</v>
+      </c>
+      <c r="D60" s="5">
+        <v>12</v>
+      </c>
+      <c r="E60" s="6">
+        <v>1</v>
+      </c>
+      <c r="F60" s="6">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="4">
+        <v>1</v>
+      </c>
+      <c r="B61" s="4">
+        <v>1</v>
+      </c>
+      <c r="C61" s="5">
+        <v>1</v>
+      </c>
+      <c r="D61" s="5">
+        <v>1</v>
+      </c>
+      <c r="E61" s="6">
+        <v>1</v>
+      </c>
+      <c r="F61" s="6">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="4">
+        <v>2</v>
+      </c>
+      <c r="B62" s="4">
+        <v>2</v>
+      </c>
+      <c r="C62" s="5">
+        <v>13</v>
+      </c>
+      <c r="D62" s="5">
+        <v>13</v>
+      </c>
+      <c r="E62" s="6">
+        <v>13</v>
+      </c>
+      <c r="F62" s="6">
+        <v>15</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="4">
+        <v>1</v>
+      </c>
+      <c r="B63" s="4">
+        <v>2</v>
+      </c>
+      <c r="C63" s="5">
+        <v>12</v>
+      </c>
+      <c r="D63" s="5">
+        <v>12</v>
+      </c>
+      <c r="E63" s="6">
+        <v>12</v>
+      </c>
+      <c r="F63" s="6">
+        <v>13</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="4">
+        <v>2</v>
+      </c>
+      <c r="C64" s="5">
+        <v>13</v>
+      </c>
+      <c r="E64" s="6">
+        <v>15</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="4">
+        <v>2</v>
+      </c>
+      <c r="B65" s="4">
+        <v>2</v>
+      </c>
+      <c r="C65" s="5">
+        <v>11</v>
+      </c>
+      <c r="D65" s="5">
+        <v>9</v>
+      </c>
+      <c r="E65" s="6">
+        <v>13</v>
+      </c>
+      <c r="F65" s="6">
+        <v>11</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="4">
+        <v>1</v>
+      </c>
+      <c r="B66" s="4">
+        <v>1</v>
+      </c>
+      <c r="C66" s="5">
+        <v>1</v>
+      </c>
+      <c r="D66" s="5">
+        <v>1</v>
+      </c>
+      <c r="E66" s="6">
+        <v>1</v>
+      </c>
+      <c r="F66" s="6">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="4">
+        <v>1</v>
+      </c>
+      <c r="B67" s="4">
+        <v>1</v>
+      </c>
+      <c r="C67" s="5">
+        <v>1</v>
+      </c>
+      <c r="D67" s="5">
+        <v>1</v>
+      </c>
+      <c r="E67" s="6">
+        <v>1</v>
+      </c>
+      <c r="F67" s="6">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="4">
+        <v>2</v>
+      </c>
+      <c r="B68" s="4">
+        <v>1</v>
+      </c>
+      <c r="C68" s="5">
+        <v>11</v>
+      </c>
+      <c r="D68" s="5">
+        <v>11</v>
+      </c>
+      <c r="E68" s="6">
+        <v>12</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="4">
+        <v>2</v>
+      </c>
+      <c r="B69" s="4">
+        <v>2</v>
+      </c>
+      <c r="C69" s="5">
+        <v>11</v>
+      </c>
+      <c r="D69" s="5">
+        <v>11</v>
+      </c>
+      <c r="E69" s="6">
+        <v>1</v>
+      </c>
+      <c r="F69" s="6">
+        <v>11</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="4">
+        <v>2</v>
+      </c>
+      <c r="B70" s="4">
+        <v>2</v>
+      </c>
+      <c r="C70" s="5">
+        <v>15</v>
+      </c>
+      <c r="D70" s="5">
+        <v>13</v>
+      </c>
+      <c r="E70" s="6">
+        <v>17</v>
+      </c>
+      <c r="F70" s="6">
+        <v>15</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="4">
+        <v>1</v>
+      </c>
+      <c r="B71" s="4">
+        <v>1</v>
+      </c>
+      <c r="C71" s="5">
+        <v>9</v>
+      </c>
+      <c r="D71" s="5">
+        <v>1</v>
+      </c>
+      <c r="E71" s="6">
+        <v>1</v>
+      </c>
+      <c r="F71" s="6">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="4">
+        <v>2</v>
+      </c>
+      <c r="B72" s="4">
+        <v>2</v>
+      </c>
+      <c r="C72" s="5">
+        <v>14</v>
+      </c>
+      <c r="D72" s="5">
+        <v>14</v>
+      </c>
+      <c r="E72" s="6">
+        <v>16</v>
+      </c>
+      <c r="F72" s="6">
+        <v>14</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="4">
+        <v>1</v>
+      </c>
+      <c r="B73" s="4">
+        <v>1</v>
+      </c>
+      <c r="C73" s="5">
+        <v>1</v>
+      </c>
+      <c r="D73" s="5">
+        <v>1</v>
+      </c>
+      <c r="E73" s="6">
+        <v>1</v>
+      </c>
+      <c r="F73" s="6">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="4">
+        <v>2</v>
+      </c>
+      <c r="B74" s="4">
+        <v>2</v>
+      </c>
+      <c r="C74" s="5">
+        <v>13</v>
+      </c>
+      <c r="D74" s="5">
+        <v>11</v>
+      </c>
+      <c r="E74" s="6">
+        <v>14</v>
+      </c>
+      <c r="F74" s="6">
+        <v>14</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="4">
+        <v>2</v>
+      </c>
+      <c r="B75" s="4">
+        <v>2</v>
+      </c>
+      <c r="C75" s="5">
+        <v>12</v>
+      </c>
+      <c r="D75" s="5">
+        <v>12</v>
+      </c>
+      <c r="E75" s="6">
+        <v>13</v>
+      </c>
+      <c r="F75" s="6">
+        <v>12</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="4">
+        <v>1</v>
+      </c>
+      <c r="B76" s="4">
+        <v>1</v>
+      </c>
+      <c r="C76" s="5">
+        <v>1</v>
+      </c>
+      <c r="D76" s="5">
+        <v>1</v>
+      </c>
+      <c r="E76" s="6">
+        <v>1</v>
+      </c>
+      <c r="F76" s="6">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="4">
+        <v>2</v>
+      </c>
+      <c r="B77" s="4">
+        <v>2</v>
+      </c>
+      <c r="C77" s="5">
+        <v>10</v>
+      </c>
+      <c r="D77" s="5">
+        <v>13</v>
+      </c>
+      <c r="F77" s="6">
+        <v>12</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="4">
+        <v>2</v>
+      </c>
+      <c r="B78" s="4">
+        <v>2</v>
+      </c>
+      <c r="C78" s="5">
+        <v>12</v>
+      </c>
+      <c r="D78" s="5">
+        <v>11</v>
+      </c>
+      <c r="E78" s="6">
+        <v>11</v>
+      </c>
+      <c r="F78" s="6">
+        <v>12</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="4">
+        <v>2</v>
+      </c>
+      <c r="C79" s="5">
+        <v>10</v>
+      </c>
+      <c r="D79" s="5">
+        <v>13</v>
+      </c>
+      <c r="E79" s="6">
+        <v>15</v>
+      </c>
+      <c r="F79" s="6">
+        <v>12</v>
+      </c>
+      <c r="G79" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="4">
+        <v>2</v>
+      </c>
+      <c r="B80" s="4">
+        <v>2</v>
+      </c>
+      <c r="C80" s="5">
+        <v>11</v>
+      </c>
+      <c r="D80" s="5">
+        <v>11</v>
+      </c>
+      <c r="E80" s="6">
+        <v>1</v>
+      </c>
+      <c r="F80" s="6">
+        <v>13</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="4">
+        <v>2</v>
+      </c>
+      <c r="B81" s="4">
+        <v>2</v>
+      </c>
+      <c r="C81" s="5">
+        <v>15</v>
+      </c>
+      <c r="D81" s="5">
+        <v>15</v>
+      </c>
+      <c r="E81" s="6">
+        <v>17</v>
+      </c>
+      <c r="F81" s="6">
+        <v>17</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="4">
+        <v>2</v>
+      </c>
+      <c r="B82" s="4">
+        <v>2</v>
+      </c>
+      <c r="C82" s="5">
+        <v>13</v>
+      </c>
+      <c r="D82" s="5">
+        <v>13</v>
+      </c>
+      <c r="E82" s="6">
+        <v>15</v>
+      </c>
+      <c r="F82" s="6">
+        <v>14</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="4">
+        <v>2</v>
+      </c>
+      <c r="B83" s="4">
+        <v>2</v>
+      </c>
+      <c r="C83" s="5">
+        <v>15</v>
+      </c>
+      <c r="D83" s="5">
+        <v>1</v>
+      </c>
+      <c r="E83" s="6">
+        <v>17</v>
+      </c>
+      <c r="F83" s="6">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="4">
+        <v>2</v>
+      </c>
+      <c r="B84" s="4">
+        <v>2</v>
+      </c>
+      <c r="C84" s="5">
+        <v>13</v>
+      </c>
+      <c r="D84" s="5">
+        <v>12</v>
+      </c>
+      <c r="E84" s="6">
+        <v>14</v>
+      </c>
+      <c r="F84" s="6">
+        <v>11</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="4">
+        <v>1</v>
+      </c>
+      <c r="B85" s="4">
+        <v>1</v>
+      </c>
+      <c r="C85" s="5">
+        <v>11</v>
+      </c>
+      <c r="D85" s="5">
+        <v>13</v>
+      </c>
+      <c r="E85" s="6">
+        <v>1</v>
+      </c>
+      <c r="F85" s="6">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="4">
+        <v>2</v>
+      </c>
+      <c r="B86" s="4">
+        <v>1</v>
+      </c>
+      <c r="C86" s="5">
+        <v>1</v>
+      </c>
+      <c r="D86" s="5">
+        <v>1</v>
+      </c>
+      <c r="E86" s="6">
+        <v>1</v>
+      </c>
+      <c r="F86" s="6">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="4">
+        <v>2</v>
+      </c>
+      <c r="B87" s="4">
+        <v>2</v>
+      </c>
+      <c r="C87" s="5">
+        <v>15</v>
+      </c>
+      <c r="D87" s="5">
+        <v>12</v>
+      </c>
+      <c r="E87" s="6">
+        <v>17</v>
+      </c>
+      <c r="F87" s="6">
+        <v>14</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="4">
+        <v>2</v>
+      </c>
+      <c r="B88" s="4">
+        <v>2</v>
+      </c>
+      <c r="C88" s="5">
+        <v>15</v>
+      </c>
+      <c r="D88" s="5">
+        <v>13</v>
+      </c>
+      <c r="E88" s="6">
+        <v>17</v>
+      </c>
+      <c r="F88" s="6">
+        <v>15</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="4">
+        <v>1</v>
+      </c>
+      <c r="B89" s="4">
+        <v>1</v>
+      </c>
+      <c r="C89" s="5">
+        <v>1</v>
+      </c>
+      <c r="D89" s="5">
+        <v>1</v>
+      </c>
+      <c r="E89" s="6">
+        <v>1</v>
+      </c>
+      <c r="F89" s="6">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="4">
+        <v>2</v>
+      </c>
+      <c r="B90" s="4">
+        <v>2</v>
+      </c>
+      <c r="C90" s="5">
+        <v>13</v>
+      </c>
+      <c r="D90" s="5">
+        <v>13</v>
+      </c>
+      <c r="E90" s="6">
+        <v>14</v>
+      </c>
+      <c r="F90" s="6">
+        <v>14</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="4">
+        <v>2</v>
+      </c>
+      <c r="B91" s="4">
+        <v>2</v>
+      </c>
+      <c r="C91" s="5">
+        <v>11</v>
+      </c>
+      <c r="D91" s="5">
+        <v>9</v>
+      </c>
+      <c r="E91" s="6">
+        <v>1</v>
+      </c>
+      <c r="F91" s="6">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="4">
+        <v>2</v>
+      </c>
+      <c r="B92" s="4">
+        <v>2</v>
+      </c>
+      <c r="C92" s="5">
+        <v>12</v>
+      </c>
+      <c r="D92" s="5">
+        <v>15</v>
+      </c>
+      <c r="E92" s="6">
+        <v>14</v>
+      </c>
+      <c r="F92" s="6">
+        <v>17</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="4">
+        <v>2</v>
+      </c>
+      <c r="B93" s="4">
+        <v>2</v>
+      </c>
+      <c r="C93" s="5">
+        <v>10</v>
+      </c>
+      <c r="D93" s="5">
+        <v>11</v>
+      </c>
+      <c r="E93" s="6">
+        <v>1</v>
+      </c>
+      <c r="F93" s="6">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="4">
+        <v>2</v>
+      </c>
+      <c r="B94" s="4">
+        <v>1</v>
+      </c>
+      <c r="C94" s="5">
+        <v>15</v>
+      </c>
+      <c r="D94" s="5">
+        <v>1</v>
+      </c>
+      <c r="E94" s="6">
+        <v>17</v>
+      </c>
+      <c r="F94" s="6">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="4">
+        <v>1</v>
+      </c>
+      <c r="B95" s="4">
+        <v>1</v>
+      </c>
+      <c r="C95" s="5">
+        <v>1</v>
+      </c>
+      <c r="D95" s="5">
+        <v>1</v>
+      </c>
+      <c r="E95" s="6">
+        <v>1</v>
+      </c>
+      <c r="F95" s="6">
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="4">
+        <v>2</v>
+      </c>
+      <c r="B96" s="4">
+        <v>2</v>
+      </c>
+      <c r="C96" s="5">
+        <v>15</v>
+      </c>
+      <c r="D96" s="5">
+        <v>11</v>
+      </c>
+      <c r="E96" s="6">
+        <v>15</v>
+      </c>
+      <c r="F96" s="6">
+        <v>15</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="4">
+        <v>1</v>
+      </c>
+      <c r="B97" s="4">
+        <v>1</v>
+      </c>
+      <c r="C97" s="5">
+        <v>1</v>
+      </c>
+      <c r="D97" s="5">
+        <v>1</v>
+      </c>
+      <c r="E97" s="6">
+        <v>1</v>
+      </c>
+      <c r="F97" s="6">
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" s="4">
+        <v>1</v>
+      </c>
+      <c r="B98" s="4">
+        <v>1</v>
+      </c>
+      <c r="C98" s="5">
+        <v>1</v>
+      </c>
+      <c r="D98" s="5">
+        <v>1</v>
+      </c>
+      <c r="E98" s="6">
+        <v>1</v>
+      </c>
+      <c r="F98" s="6">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B100" s="4">
+        <v>1</v>
+      </c>
+      <c r="D100" s="5">
+        <v>1</v>
+      </c>
+      <c r="F100" s="6">
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="4">
+        <v>2</v>
+      </c>
+      <c r="B101" s="4">
+        <v>2</v>
+      </c>
+      <c r="C101" s="5">
+        <v>15</v>
+      </c>
+      <c r="D101" s="5">
+        <v>10</v>
+      </c>
+      <c r="E101" s="6">
+        <v>17</v>
+      </c>
+      <c r="F101" s="6">
+        <v>11</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" s="4">
+        <v>2</v>
+      </c>
+      <c r="B102" s="4">
+        <v>2</v>
+      </c>
+      <c r="C102" s="5">
+        <v>12</v>
+      </c>
+      <c r="D102" s="5">
+        <v>12</v>
+      </c>
+      <c r="E102" s="6">
+        <v>11</v>
+      </c>
+      <c r="F102" s="6">
+        <v>15</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" s="4">
+        <v>1</v>
+      </c>
+      <c r="B103" s="4">
+        <v>2</v>
+      </c>
+      <c r="C103" s="5">
+        <v>9</v>
+      </c>
+      <c r="D103" s="5">
+        <v>10</v>
+      </c>
+      <c r="E103" s="6">
+        <v>12</v>
+      </c>
+      <c r="F103" s="6">
+        <v>1</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="4">
+        <v>1</v>
+      </c>
+      <c r="B104" s="4">
+        <v>1</v>
+      </c>
+      <c r="C104" s="5">
+        <v>1</v>
+      </c>
+      <c r="D104" s="5">
+        <v>1</v>
+      </c>
+      <c r="E104" s="6">
+        <v>1</v>
+      </c>
+      <c r="F104" s="6">
+        <v>1</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" s="4">
+        <v>2</v>
+      </c>
+      <c r="B105" s="4">
+        <v>2</v>
+      </c>
+      <c r="C105" s="5">
+        <v>15</v>
+      </c>
+      <c r="D105" s="5">
+        <v>15</v>
+      </c>
+      <c r="E105" s="6">
+        <v>15</v>
+      </c>
+      <c r="F105" s="6">
+        <v>15</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" s="4">
+        <v>1</v>
+      </c>
+      <c r="B106" s="4">
+        <v>1</v>
+      </c>
+      <c r="C106" s="5">
+        <v>1</v>
+      </c>
+      <c r="D106" s="5">
+        <v>1</v>
+      </c>
+      <c r="E106" s="6">
+        <v>1</v>
+      </c>
+      <c r="F106" s="6">
+        <v>1</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" s="4">
+        <v>2</v>
+      </c>
+      <c r="B107" s="4">
+        <v>2</v>
+      </c>
+      <c r="C107" s="5">
+        <v>9</v>
+      </c>
+      <c r="D107" s="5">
+        <v>13</v>
+      </c>
+      <c r="E107" s="6">
+        <v>1</v>
+      </c>
+      <c r="F107" s="6">
+        <v>1</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" s="4">
+        <v>2</v>
+      </c>
+      <c r="B108" s="4">
+        <v>2</v>
+      </c>
+      <c r="C108" s="5">
+        <v>9</v>
+      </c>
+      <c r="D108" s="5">
+        <v>13</v>
+      </c>
+      <c r="E108" s="6">
+        <v>1</v>
+      </c>
+      <c r="F108" s="6">
+        <v>14</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" s="4">
+        <v>2</v>
+      </c>
+      <c r="B109" s="4">
+        <v>2</v>
+      </c>
+      <c r="C109" s="5">
+        <v>13</v>
+      </c>
+      <c r="D109" s="5">
+        <v>12</v>
+      </c>
+      <c r="E109" s="6">
+        <v>13</v>
+      </c>
+      <c r="F109" s="6">
+        <v>1</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" s="4">
+        <v>2</v>
+      </c>
+      <c r="B110" s="4">
+        <v>2</v>
+      </c>
+      <c r="C110" s="5">
+        <v>13</v>
+      </c>
+      <c r="D110" s="5">
+        <v>11</v>
+      </c>
+      <c r="E110" s="6">
+        <v>15</v>
+      </c>
+      <c r="F110" s="6">
+        <v>13</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" s="4">
+        <v>2</v>
+      </c>
+      <c r="B111" s="4">
+        <v>1</v>
+      </c>
+      <c r="C111" s="5">
+        <v>11</v>
+      </c>
+      <c r="D111" s="5">
+        <v>1</v>
+      </c>
+      <c r="E111" s="6">
+        <v>12</v>
+      </c>
+      <c r="F111" s="6">
+        <v>1</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" s="4">
+        <v>1</v>
+      </c>
+      <c r="B112" s="4">
+        <v>1</v>
+      </c>
+      <c r="C112" s="5">
+        <v>9</v>
+      </c>
+      <c r="D112" s="5">
+        <v>1</v>
+      </c>
+      <c r="E112" s="6">
+        <v>11</v>
+      </c>
+      <c r="F112" s="6">
+        <v>1</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" s="4">
+        <v>2</v>
+      </c>
+      <c r="B113" s="4">
+        <v>2</v>
+      </c>
+      <c r="C113" s="5">
+        <v>12</v>
+      </c>
+      <c r="D113" s="5">
+        <v>13</v>
+      </c>
+      <c r="E113" s="6">
+        <v>11</v>
+      </c>
+      <c r="F113" s="6">
+        <v>14</v>
+      </c>
+      <c r="G113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" s="4">
+        <v>2</v>
+      </c>
+      <c r="B114" s="4">
+        <v>2</v>
+      </c>
+      <c r="C114" s="5">
+        <v>15</v>
+      </c>
+      <c r="D114" s="5">
+        <v>15</v>
+      </c>
+      <c r="E114" s="6">
+        <v>17</v>
+      </c>
+      <c r="F114" s="6">
+        <v>14</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" s="4">
+        <v>2</v>
+      </c>
+      <c r="B115" s="4">
+        <v>2</v>
+      </c>
+      <c r="C115" s="5">
+        <v>15</v>
+      </c>
+      <c r="D115" s="5">
+        <v>15</v>
+      </c>
+      <c r="E115" s="6">
+        <v>15</v>
+      </c>
+      <c r="F115" s="6">
+        <v>14</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" s="4">
+        <v>2</v>
+      </c>
+      <c r="B116" s="4">
+        <v>2</v>
+      </c>
+      <c r="C116" s="5">
+        <v>14</v>
+      </c>
+      <c r="D116" s="5">
+        <v>14</v>
+      </c>
+      <c r="E116" s="6">
+        <v>15</v>
+      </c>
+      <c r="F116" s="6">
+        <v>15</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" s="4">
+        <v>2</v>
+      </c>
+      <c r="B117" s="4">
+        <v>2</v>
+      </c>
+      <c r="C117" s="5">
+        <v>12</v>
+      </c>
+      <c r="D117" s="5">
+        <v>12</v>
+      </c>
+      <c r="E117" s="6">
+        <v>14</v>
+      </c>
+      <c r="F117" s="6">
+        <v>14</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
